--- a/DATA_goal/Junction_Flooding_999.xlsx
+++ b/DATA_goal/Junction_Flooding_999.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="7" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
-    <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
-    <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="7" customWidth="1" min="18" max="18"/>
-    <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
-    <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
-    <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
-    <col width="7" customWidth="1" min="31" max="31"/>
-    <col width="8" customWidth="1" min="32" max="32"/>
-    <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="5" customWidth="1" min="2" max="2"/>
+    <col width="5" customWidth="1" min="3" max="3"/>
+    <col width="5" customWidth="1" min="4" max="4"/>
+    <col width="5" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="6" max="6"/>
+    <col width="5" customWidth="1" min="7" max="7"/>
+    <col width="5" customWidth="1" min="8" max="8"/>
+    <col width="5" customWidth="1" min="9" max="9"/>
+    <col width="5" customWidth="1" min="10" max="10"/>
+    <col width="5" customWidth="1" min="11" max="11"/>
+    <col width="5" customWidth="1" min="12" max="12"/>
+    <col width="5" customWidth="1" min="13" max="13"/>
+    <col width="5" customWidth="1" min="14" max="14"/>
+    <col width="5" customWidth="1" min="15" max="15"/>
+    <col width="5" customWidth="1" min="16" max="16"/>
+    <col width="5" customWidth="1" min="17" max="17"/>
+    <col width="5" customWidth="1" min="18" max="18"/>
+    <col width="5" customWidth="1" min="19" max="19"/>
+    <col width="5" customWidth="1" min="20" max="20"/>
+    <col width="5" customWidth="1" min="21" max="21"/>
+    <col width="5" customWidth="1" min="22" max="22"/>
+    <col width="5" customWidth="1" min="23" max="23"/>
+    <col width="5" customWidth="1" min="24" max="24"/>
+    <col width="5" customWidth="1" min="25" max="25"/>
+    <col width="5" customWidth="1" min="26" max="26"/>
+    <col width="5" customWidth="1" min="27" max="27"/>
+    <col width="5" customWidth="1" min="28" max="28"/>
+    <col width="5" customWidth="1" min="29" max="29"/>
+    <col width="5" customWidth="1" min="30" max="30"/>
+    <col width="5" customWidth="1" min="31" max="31"/>
+    <col width="5" customWidth="1" min="32" max="32"/>
+    <col width="5" customWidth="1" min="33" max="33"/>
+    <col width="5" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44980.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.411</v>
+        <v>0</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.834</v>
+        <v>0</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.687</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.96</v>
+        <v>0</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>6.46</v>
+        <v>0</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>2.421</v>
+        <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5.343</v>
+        <v>0</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.587</v>
+        <v>0</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.088</v>
+        <v>0</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.625</v>
+        <v>0</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>2.867</v>
+        <v>0</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>4.386</v>
+        <v>0</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.5669999999999999</v>
+        <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.262</v>
+        <v>0</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>5.05</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.896</v>
+        <v>0</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.601</v>
+        <v>0</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.104</v>
+        <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>31.507</v>
+        <v>0</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>6.768</v>
+        <v>0</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>2.777</v>
+        <v>0</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.652</v>
+        <v>0</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>3.949</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.176</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.915</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.546</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.916</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>5.093</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>2.911</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.891</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>4.078</v>
+        <v>0</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.877</v>
+        <v>0</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>2.065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44980.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.81</v>
+        <v>0</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.505</v>
+        <v>0</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.5669999999999999</v>
+        <v>0</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>4.366</v>
+        <v>0</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>4.636</v>
+        <v>0</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.838</v>
+        <v>0</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>6.452</v>
+        <v>0</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.366</v>
+        <v>0</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.071</v>
+        <v>0</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.452</v>
+        <v>0</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>2.086</v>
+        <v>0</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>2.666</v>
+        <v>0</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.523</v>
+        <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.154</v>
+        <v>0</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>3.41</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.903</v>
+        <v>0</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.425</v>
+        <v>0</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.06900000000000001</v>
+        <v>0</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>20.87</v>
+        <v>0</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>5.2</v>
+        <v>0</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.948</v>
+        <v>0</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>3.229</v>
+        <v>0</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>2.48</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.163</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.907</v>
+        <v>0</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.382</v>
+        <v>0</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.539</v>
+        <v>0</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>2.753</v>
+        <v>0</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>2.187</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.318</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>5.853</v>
+        <v>0</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.724</v>
+        <v>0</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.777</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44980.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>14.665</v>
+        <v>0</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>10.626</v>
+        <v>0</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.766</v>
+        <v>0</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>30.83</v>
+        <v>0</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>26.141</v>
+        <v>0</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>11.319</v>
+        <v>0</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>38.256</v>
+        <v>0</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>17.134</v>
+        <v>0</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>7.682</v>
+        <v>0</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>11.375</v>
+        <v>0</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>12.577</v>
+        <v>0</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>13.579</v>
+        <v>0</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.578</v>
+        <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>10.767</v>
+        <v>0</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>16.563</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>8.904</v>
+        <v>0</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.423</v>
+        <v>0</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.422</v>
+        <v>0</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>164.068</v>
+        <v>0</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>31.319</v>
+        <v>0</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>10.57</v>
+        <v>0</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>21.016</v>
+        <v>0</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>11.563</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.429</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>19.167</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>9.127000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>8.225</v>
+        <v>0</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>10.231</v>
+        <v>0</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>13.222</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.793</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>34.507</v>
+        <v>0</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>5.751</v>
+        <v>0</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>12.768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44980.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>4.03</v>
+        <v>0</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>2.73</v>
+        <v>0</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>7.99</v>
+        <v>0</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>7.08</v>
+        <v>0</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>3.01</v>
+        <v>0</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>15.95</v>
+        <v>0</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>4.43</v>
+        <v>0</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>2.87</v>
+        <v>0</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>3.74</v>
+        <v>0</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>2.61</v>
+        <v>0</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>4.74</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>2.16</v>
+        <v>0</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>38.33</v>
+        <v>0</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>8.66</v>
+        <v>0</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>5.79</v>
+        <v>0</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>7.31</v>
+        <v>0</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>2.41</v>
+        <v>0</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.29</v>
+        <v>0</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>3.07</v>
+        <v>0</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>3.52</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.57</v>
+        <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>14.97</v>
+        <v>0</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>3.29</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
